--- a/INTLINE/data/134/DEUSTATIS/National accounts - Gross fixed capital formation years.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/National accounts - Gross fixed capital formation years.xlsx
@@ -207,7 +207,7 @@
     <t>resources.</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-03-31 / 11:38:23</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-17 / 08:45:00</t>
   </si>
 </sst>
 </file>
@@ -1345,7 +1345,7 @@
         <v>735.869</v>
       </c>
       <c r="AG6" t="n" s="10">
-        <v>783.896</v>
+        <v>781.488</v>
       </c>
     </row>
     <row r="7">
@@ -1446,7 +1446,7 @@
         <v>216.903</v>
       </c>
       <c r="AG7" t="n" s="10">
-        <v>228.165</v>
+        <v>228.397</v>
       </c>
     </row>
     <row r="8">
@@ -1749,7 +1749,7 @@
         <v>380.064</v>
       </c>
       <c r="AG10" t="n" s="10">
-        <v>414.26</v>
+        <v>411.61</v>
       </c>
     </row>
     <row r="11">
@@ -1850,7 +1850,7 @@
         <v>234.44</v>
       </c>
       <c r="AG11" t="n" s="10">
-        <v>257.644</v>
+        <v>256.097</v>
       </c>
     </row>
     <row r="12">
@@ -1951,7 +1951,7 @@
         <v>145.624</v>
       </c>
       <c r="AG12" t="n" s="10">
-        <v>156.616</v>
+        <v>155.513</v>
       </c>
     </row>
     <row r="13">
@@ -2052,7 +2052,7 @@
         <v>93.43</v>
       </c>
       <c r="AG13" t="n" s="10">
-        <v>100.219</v>
+        <v>99.282</v>
       </c>
     </row>
     <row r="14">
@@ -2153,7 +2153,7 @@
         <v>52.194</v>
       </c>
       <c r="AG14" t="n" s="10">
-        <v>56.397</v>
+        <v>56.231</v>
       </c>
     </row>
     <row r="15">
@@ -2254,7 +2254,7 @@
         <v>138.902</v>
       </c>
       <c r="AG15" t="n" s="10">
-        <v>141.471</v>
+        <v>141.481</v>
       </c>
     </row>
     <row r="16" ht="33.75" customHeight="true">
@@ -2360,7 +2360,7 @@
         <v>109.67</v>
       </c>
       <c r="AG17" t="n" s="10">
-        <v>111.27</v>
+        <v>110.91</v>
       </c>
     </row>
     <row r="18">
@@ -2461,7 +2461,7 @@
         <v>100.46</v>
       </c>
       <c r="AG18" t="n" s="10">
-        <v>103.86</v>
+        <v>103.8</v>
       </c>
     </row>
     <row r="19">
@@ -2764,7 +2764,7 @@
         <v>111.43</v>
       </c>
       <c r="AG21" t="n" s="10">
-        <v>112.16</v>
+        <v>111.48</v>
       </c>
     </row>
     <row r="22">
@@ -2865,7 +2865,7 @@
         <v>114.49</v>
       </c>
       <c r="AG22" t="n" s="10">
-        <v>115.93</v>
+        <v>115.28</v>
       </c>
     </row>
     <row r="23">
@@ -2966,7 +2966,7 @@
         <v>106.82</v>
       </c>
       <c r="AG23" t="n" s="10">
-        <v>106.47</v>
+        <v>105.76</v>
       </c>
     </row>
     <row r="24">
@@ -3067,7 +3067,7 @@
         <v>103.5</v>
       </c>
       <c r="AG24" t="n" s="10">
-        <v>102.08</v>
+        <v>101.17</v>
       </c>
     </row>
     <row r="25">
@@ -3168,7 +3168,7 @@
         <v>113.39</v>
       </c>
       <c r="AG25" t="n" s="10">
-        <v>115.14</v>
+        <v>114.81</v>
       </c>
     </row>
     <row r="26">
@@ -3375,7 +3375,7 @@
         <v>664.42</v>
       </c>
       <c r="AG28" t="n" s="10">
-        <v>674.114</v>
+        <v>671.933</v>
       </c>
     </row>
     <row r="29">
@@ -3476,7 +3476,7 @@
         <v>207.895</v>
       </c>
       <c r="AG29" t="n" s="10">
-        <v>214.931</v>
+        <v>214.807</v>
       </c>
     </row>
     <row r="30">
@@ -3779,7 +3779,7 @@
         <v>324.532</v>
       </c>
       <c r="AG32" t="n" s="10">
-        <v>326.658</v>
+        <v>324.678</v>
       </c>
     </row>
     <row r="33">
@@ -3880,7 +3880,7 @@
         <v>200.775</v>
       </c>
       <c r="AG33" t="n" s="10">
-        <v>203.301</v>
+        <v>202.161</v>
       </c>
     </row>
     <row r="34">
@@ -3981,7 +3981,7 @@
         <v>123.781</v>
       </c>
       <c r="AG34" t="n" s="10">
-        <v>123.375</v>
+        <v>122.553</v>
       </c>
     </row>
     <row r="35">
@@ -4082,7 +4082,7 @@
         <v>79.971</v>
       </c>
       <c r="AG35" t="n" s="10">
-        <v>78.874</v>
+        <v>78.171</v>
       </c>
     </row>
     <row r="36">
@@ -4183,7 +4183,7 @@
         <v>43.781</v>
       </c>
       <c r="AG36" t="n" s="10">
-        <v>44.457</v>
+        <v>44.329</v>
       </c>
     </row>
     <row r="37">
@@ -4390,7 +4390,7 @@
         <v>725.699</v>
       </c>
       <c r="AG39" t="n" s="10">
-        <v>746.624</v>
+        <v>744.2</v>
       </c>
     </row>
     <row r="40">
@@ -4491,7 +4491,7 @@
         <v>214.118</v>
       </c>
       <c r="AG40" t="n" s="10">
-        <v>224.256</v>
+        <v>224.119</v>
       </c>
     </row>
     <row r="41">
@@ -4794,7 +4794,7 @@
         <v>373.163</v>
       </c>
       <c r="AG43" t="n" s="10">
-        <v>382.534</v>
+        <v>380.237</v>
       </c>
     </row>
     <row r="44">
@@ -4895,7 +4895,7 @@
         <v>230.269</v>
       </c>
       <c r="AG44" t="n" s="10">
-        <v>237.386</v>
+        <v>236.062</v>
       </c>
     </row>
     <row r="45">
@@ -4996,7 +4996,7 @@
         <v>142.894</v>
       </c>
       <c r="AG45" t="n" s="10">
-        <v>145.148</v>
+        <v>144.175</v>
       </c>
     </row>
     <row r="46">
@@ -5097,7 +5097,7 @@
         <v>91.363</v>
       </c>
       <c r="AG46" t="n" s="10">
-        <v>92.15</v>
+        <v>91.329</v>
       </c>
     </row>
     <row r="47">
@@ -5198,7 +5198,7 @@
         <v>51.531</v>
       </c>
       <c r="AG47" t="n" s="10">
-        <v>52.998</v>
+        <v>52.846</v>
       </c>
     </row>
     <row r="48">
@@ -5299,7 +5299,7 @@
         <v>138.418</v>
       </c>
       <c r="AG48" t="n" s="10">
-        <v>139.834</v>
+        <v>139.844</v>
       </c>
     </row>
     <row r="49">
@@ -5379,7 +5379,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 31.03.22 / 11:38:28&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 17.06.22 / 08:45:05&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/INTLINE/data/134/DEUSTATIS/National accounts - Gross fixed capital formation years.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/National accounts - Gross fixed capital formation years.xlsx
@@ -207,7 +207,7 @@
     <t>resources.</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-17 / 08:45:00</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-28 / 05:35:15</t>
   </si>
 </sst>
 </file>
@@ -5379,7 +5379,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 17.06.22 / 08:45:05&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 28.06.22 / 05:35:20&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>